--- a/public/proposed_file_name (2).xlsx
+++ b/public/proposed_file_name (2).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anil Chauhan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CICDPiplines\NextStarter\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB2B21-DDF8-4E49-8E81-989C05FFFB02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6550" xr2:uid="{2AC2E84A-93D1-4092-8D6F-1C9850EEFEE9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>dell</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{18B0E919-B32B-4E4B-9F9D-F6D503520DAC}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,19 +87,19 @@
     <t>Settlement Reward</t>
   </si>
   <si>
-    <t>Minimum Part Amount  Reward</t>
-  </si>
-  <si>
     <t>payment url</t>
   </si>
   <si>
     <t>https://customerpaymenturl.com</t>
+  </si>
+  <si>
+    <t>Minimum Part Amount Reward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -529,26 +528,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF387A3-C8E2-4D20-808C-2DA664086B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -607,12 +606,12 @@
         <v>46.052500000000009</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{352C2DCD-E2DB-42CD-9FC6-C54DFD97CEFF}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
